--- a/output/2006.xlsx
+++ b/output/2006.xlsx
@@ -1364,356 +1364,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>58</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>59</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>62</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>63</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>64</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>65</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>68</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>76</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>77</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>81</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>82</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>83</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -1969,306 +1619,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>38</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>41</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>42</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>45</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>46</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>48</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>49</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>51</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -2378,7 +1728,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2403,7 +1753,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2428,7 +1778,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2453,7 +1803,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2478,7 +1828,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2503,7 +1853,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>47</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2528,7 +1878,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2553,7 +1903,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>51</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2578,7 +1928,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>64</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2603,7 +1953,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>43</row>
+      <row>67</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2628,7 +1978,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>44</row>
+      <row>69</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2653,7 +2003,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>45</row>
+      <row>70</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2678,7 +2028,437 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>46</row>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2703,7 +2483,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>61</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2728,7 +2508,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>71</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2753,7 +2533,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>51</row>
+      <row>73</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2778,7 +2558,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>54</row>
+      <row>74</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2803,7 +2583,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>75</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2828,7 +2608,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>79</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2853,7 +2633,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>59</row>
+      <row>80</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2878,7 +2658,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>81</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2903,7 +2683,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2928,7 +2708,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>63</row>
+      <row>83</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2953,7 +2733,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>64</row>
+      <row>91</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -2978,7 +2758,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>67</row>
+      <row>92</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3003,7 +2783,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>69</row>
+      <row>93</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3028,7 +2808,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>70</row>
+      <row>94</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3053,7 +2833,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>71</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3074,741 +2854,16 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>80</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>81</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>82</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>83</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>84</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>86</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>87</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>88</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>89</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>90</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>92</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>93</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>94</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>96</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="48" name="Image 48" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>98</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="49" name="Image 49" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>100</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="50" name="Image 50" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>101</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="51" name="Image 51" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>102</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="52" name="Image 52" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>104</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="53" name="Image 53" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>105</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="54" name="Image 54" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="55" name="Image 55" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="56" name="Image 56" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>109</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="57" name="Image 57" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>111</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="58" name="Image 58" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>112</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="59" name="Image 59" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>116</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="60" name="Image 60" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>117</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="61" name="Image 61" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3833,7 +2888,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3858,7 +2913,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3883,7 +2938,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>16</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3908,7 +2963,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3933,7 +2988,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -3944,1736 +2999,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>22</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>23</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>28</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>29</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="13" name="Image 13" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>30</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="14" name="Image 14" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>36</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="15" name="Image 15" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="16" name="Image 16" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>39</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="17" name="Image 17" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>40</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="18" name="Image 18" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId18"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>47</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="19" name="Image 19" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId19"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>48</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="20" name="Image 20" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>50</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="21" name="Image 21" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>52</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="22" name="Image 22" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId22"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>54</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="23" name="Image 23" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>55</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="24" name="Image 24" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>56</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="25" name="Image 25" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId25"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>57</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="26" name="Image 26" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>58</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="27" name="Image 27" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>60</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>61</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>62</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>66</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>68</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>69</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>70</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>71</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>73</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>74</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>79</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="39" name="Image 39" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>80</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="40" name="Image 40" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId40"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>81</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="41" name="Image 41" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>82</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="42" name="Image 42" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>83</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="43" name="Image 43" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>91</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>92</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>93</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>94</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>97</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="48" name="Image 48" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>104</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="49" name="Image 49" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>105</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="50" name="Image 50" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>106</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="51" name="Image 51" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>107</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="52" name="Image 52" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>108</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="53" name="Image 53" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>109</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="54" name="Image 54" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>110</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="55" name="Image 55" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>111</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="56" name="Image 56" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>112</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="57" name="Image 57" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>113</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="58" name="Image 58" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>114</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="59" name="Image 59" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>122</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="60" name="Image 60" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>123</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="61" name="Image 61" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>124</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="62" name="Image 62" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>125</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="63" name="Image 63" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>8</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>13</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>16</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>34</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>35</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>37</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="12" name="Image 12" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -6364,281 +3689,6 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>66</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="28" name="Image 28" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId28"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>67</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="29" name="Image 29" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>68</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="30" name="Image 30" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>69</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="31" name="Image 31" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>75</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="32" name="Image 32" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>76</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="33" name="Image 33" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId33"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>77</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="34" name="Image 34" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId34"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>78</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="35" name="Image 35" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>82</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="36" name="Image 36" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>84</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="37" name="Image 37" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId37"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>85</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="38" name="Image 38" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -6648,7 +3698,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6673,7 +3723,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6698,7 +3748,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6723,7 +3773,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6748,7 +3798,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6773,7 +3823,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -6784,131 +3834,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>47</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>51</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>57</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="9" name="Image 9" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>62</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="10" name="Image 10" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>73</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="11" name="Image 11" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -7328,7 +4253,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>43</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7353,7 +4278,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>44</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7378,7 +4303,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>52</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7403,7 +4328,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>54</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7428,7 +4353,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>42</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7453,7 +4378,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>56</row>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7478,7 +4403,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>57</row>
+      <row>44</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7503,7 +4428,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7528,7 +4453,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>59</row>
+      <row>54</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7553,7 +4478,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>60</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7578,7 +4503,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>62</row>
+      <row>56</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7603,7 +4528,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>63</row>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7628,7 +4553,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>81</row>
+      <row>58</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7653,7 +4578,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>82</row>
+      <row>59</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7678,7 +4603,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>84</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7703,7 +4628,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>86</row>
+      <row>62</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7728,7 +4653,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>88</row>
+      <row>63</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7753,7 +4678,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>90</row>
+      <row>81</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7778,7 +4703,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>97</row>
+      <row>82</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7803,7 +4728,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>98</row>
+      <row>84</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7828,7 +4753,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>99</row>
+      <row>86</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7853,7 +4778,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>100</row>
+      <row>88</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7878,7 +4803,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>106</row>
+      <row>90</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7903,7 +4828,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>107</row>
+      <row>97</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7928,7 +4853,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>108</row>
+      <row>98</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7953,7 +4878,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>110</row>
+      <row>99</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7978,7 +4903,7 @@
     <from>
       <col>5</col>
       <colOff>0</colOff>
-      <row>111</row>
+      <row>100</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="476250" cy="476250"/>
@@ -7989,781 +4914,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>112</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="44" name="Image 44" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>113</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="45" name="Image 45" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>116</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="46" name="Image 46" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>118</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="47" name="Image 47" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>119</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="48" name="Image 48" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>121</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="49" name="Image 49" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>122</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="50" name="Image 50" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>123</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="51" name="Image 51" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>124</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="52" name="Image 52" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>125</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="53" name="Image 53" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId53"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>127</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="54" name="Image 54" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId54"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>128</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="55" name="Image 55" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId55"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>129</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="56" name="Image 56" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId56"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>130</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="57" name="Image 57" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId57"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>134</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="58" name="Image 58" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId58"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>135</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="59" name="Image 59" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId59"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>137</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="60" name="Image 60" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId60"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>139</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="61" name="Image 61" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId61"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>141</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="62" name="Image 62" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId62"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>143</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="63" name="Image 63" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId63"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>145</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="64" name="Image 64" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId64"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>147</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="65" name="Image 65" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>148</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="66" name="Image 66" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>149</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="67" name="Image 67" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>150</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="68" name="Image 68" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>151</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="69" name="Image 69" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId69"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>156</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="70" name="Image 70" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId70"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>160</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="71" name="Image 71" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId71"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>161</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="72" name="Image 72" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId72"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>162</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="73" name="Image 73" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId73"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>167</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="476250" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="74" name="Image 74" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -47723,6 +43873,13 @@
         </is>
       </c>
     </row>
+    <row r="139">
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Daly &amp; Figgis Advocates, P. O. Box 40034 -00100, Nairobi.</t>
+        </is>
+      </c>
+    </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
@@ -47745,6 +43902,13 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Daly &amp; Figgis Advocates, P. O. Box 40034 -00100, Nairobi.</t>
+        </is>
+      </c>
+    </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
@@ -47767,6 +43931,13 @@
         </is>
       </c>
     </row>
+    <row r="143">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Daly &amp; Figgis Advocates, P. O. Box 40034 -00100, Nairobi.</t>
+        </is>
+      </c>
+    </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
@@ -47789,6 +43960,13 @@
         </is>
       </c>
     </row>
+    <row r="145">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Daly &amp; Figgis Advocates, P. O. Box 40034-00100, Nairobi.</t>
+        </is>
+      </c>
+    </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
@@ -47808,6 +43986,13 @@
       <c r="D146" t="inlineStr">
         <is>
           <t>West Kenya Sugar Company Ltd, a limited liability company registered under the companies Act (cap. 486) of the laws of Kenya, Sugar Manufacturers of P.O. Box</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Daly &amp; Figgis Advocates, P. O. B ox 40034-00100, Nairobi.</t>
         </is>
       </c>
     </row>
